--- a/data/pca/factorExposure/factorExposure_2014-07-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-07-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,21 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +732,60 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.005147611474861486</v>
+        <v>0.02026375082487683</v>
       </c>
       <c r="C2">
-        <v>-0.1485605839463637</v>
+        <v>0.07157464249275716</v>
       </c>
       <c r="D2">
-        <v>-0.03439892377692416</v>
+        <v>-0.03267052852890444</v>
       </c>
       <c r="E2">
-        <v>0.2346702321957838</v>
+        <v>0.01111800124223313</v>
       </c>
       <c r="F2">
-        <v>0.0670375804119635</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.01325326905598246</v>
+      </c>
+      <c r="G2">
+        <v>-0.1600079708551052</v>
+      </c>
+      <c r="H2">
+        <v>-0.003946532927780667</v>
+      </c>
+      <c r="I2">
+        <v>0.06252797936030885</v>
+      </c>
+      <c r="J2">
+        <v>-0.1130403673334633</v>
+      </c>
+      <c r="K2">
+        <v>0.04575262939348983</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +802,60 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.01407899156765956</v>
+        <v>0.0215752592695052</v>
       </c>
       <c r="C4">
-        <v>-0.1735378713126945</v>
+        <v>0.1406807665560643</v>
       </c>
       <c r="D4">
-        <v>-0.04927175445207332</v>
+        <v>-0.06385899054283614</v>
       </c>
       <c r="E4">
-        <v>0.03006055041135098</v>
+        <v>0.008690239018439672</v>
       </c>
       <c r="F4">
-        <v>-0.07489404179022022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.05716053524373056</v>
+      </c>
+      <c r="G4">
+        <v>-0.03364082537010106</v>
+      </c>
+      <c r="H4">
+        <v>0.0126196799921985</v>
+      </c>
+      <c r="I4">
+        <v>-0.02609153821348917</v>
+      </c>
+      <c r="J4">
+        <v>-0.1003150212056282</v>
+      </c>
+      <c r="K4">
+        <v>-0.005659215498223466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +872,410 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.03831448108819767</v>
+        <v>0.04217442494739923</v>
       </c>
       <c r="C6">
-        <v>-0.07198420718768367</v>
+        <v>0.08499458774963677</v>
       </c>
       <c r="D6">
-        <v>-0.07435281763293168</v>
+        <v>-0.02750664871118925</v>
       </c>
       <c r="E6">
-        <v>0.02920130225813081</v>
+        <v>-0.02194805186934434</v>
       </c>
       <c r="F6">
-        <v>0.004619851726574188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.01978170651590449</v>
+      </c>
+      <c r="G6">
+        <v>-0.04748586632792137</v>
+      </c>
+      <c r="H6">
+        <v>0.008259091344996831</v>
+      </c>
+      <c r="I6">
+        <v>-0.07876319509599312</v>
+      </c>
+      <c r="J6">
+        <v>-0.003077195432867462</v>
+      </c>
+      <c r="K6">
+        <v>0.056100985952557</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.02013101449780268</v>
+        <v>0.0211198948697935</v>
       </c>
       <c r="C7">
-        <v>-0.08040094527060315</v>
+        <v>0.07320675289848153</v>
       </c>
       <c r="D7">
-        <v>-0.04527021051221824</v>
+        <v>-0.03193666178772041</v>
       </c>
       <c r="E7">
-        <v>-0.003855247925352151</v>
+        <v>-0.01898164846166733</v>
       </c>
       <c r="F7">
-        <v>0.0131860034834542</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.005259576499693012</v>
+      </c>
+      <c r="G7">
+        <v>0.01627523002578946</v>
+      </c>
+      <c r="H7">
+        <v>0.01589334863836535</v>
+      </c>
+      <c r="I7">
+        <v>-0.01343547794893201</v>
+      </c>
+      <c r="J7">
+        <v>-0.1078053870590794</v>
+      </c>
+      <c r="K7">
+        <v>0.02454600817182246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.01253661557657398</v>
+        <v>0.002220588979982109</v>
       </c>
       <c r="C8">
-        <v>-0.07169450120278377</v>
+        <v>0.0610232070308698</v>
       </c>
       <c r="D8">
-        <v>-0.02220563868821255</v>
+        <v>-0.04398984883668119</v>
       </c>
       <c r="E8">
-        <v>0.08151137546665001</v>
+        <v>-0.03100430833252439</v>
       </c>
       <c r="F8">
-        <v>-0.01434871254579955</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02597837385690138</v>
+      </c>
+      <c r="G8">
+        <v>-0.06544820040202712</v>
+      </c>
+      <c r="H8">
+        <v>0.04462845038497386</v>
+      </c>
+      <c r="I8">
+        <v>-0.02788815245021754</v>
+      </c>
+      <c r="J8">
+        <v>-0.02507632665875775</v>
+      </c>
+      <c r="K8">
+        <v>-0.02131443193561753</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.008382719436220211</v>
+        <v>0.0139344510725232</v>
       </c>
       <c r="C9">
-        <v>-0.121500251125817</v>
+        <v>0.09992720056903044</v>
       </c>
       <c r="D9">
-        <v>-0.05802314314847487</v>
+        <v>-0.04125809273629311</v>
       </c>
       <c r="E9">
-        <v>-0.00538909244289281</v>
+        <v>0.0220387221394805</v>
       </c>
       <c r="F9">
-        <v>-0.01099321087748488</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.02279456097281999</v>
+      </c>
+      <c r="G9">
+        <v>-0.02308927986424931</v>
+      </c>
+      <c r="H9">
+        <v>0.0322716170600034</v>
+      </c>
+      <c r="I9">
+        <v>-0.009734834996349868</v>
+      </c>
+      <c r="J9">
+        <v>-0.1042935781080453</v>
+      </c>
+      <c r="K9">
+        <v>0.01266992208041651</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.2547738517891003</v>
+        <v>0.2424063406916097</v>
       </c>
       <c r="C10">
-        <v>0.07946879193625452</v>
+        <v>-0.1032772655762711</v>
       </c>
       <c r="D10">
-        <v>0.03102021545858747</v>
+        <v>0.007805083223288095</v>
       </c>
       <c r="E10">
-        <v>-0.02231651391438312</v>
+        <v>-0.04971570342802601</v>
       </c>
       <c r="F10">
-        <v>-0.03923097016169651</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.0009297455710027696</v>
+      </c>
+      <c r="G10">
+        <v>-0.020574074130087</v>
+      </c>
+      <c r="H10">
+        <v>0.01306883940122555</v>
+      </c>
+      <c r="I10">
+        <v>-0.0579020246405326</v>
+      </c>
+      <c r="J10">
+        <v>-0.02302000469592034</v>
+      </c>
+      <c r="K10">
+        <v>-0.1422775971334228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.007338677985542639</v>
+        <v>0.01866216615592228</v>
       </c>
       <c r="C11">
-        <v>-0.06678394894779567</v>
+        <v>0.07863672249375998</v>
       </c>
       <c r="D11">
-        <v>-0.03582353618445333</v>
+        <v>-0.04140058563246608</v>
       </c>
       <c r="E11">
-        <v>-0.0356006240018177</v>
+        <v>0.01198310730693213</v>
       </c>
       <c r="F11">
-        <v>-0.005372849147786452</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.002526162102294714</v>
+      </c>
+      <c r="G11">
+        <v>0.01087311683328027</v>
+      </c>
+      <c r="H11">
+        <v>0.01679776999281148</v>
+      </c>
+      <c r="I11">
+        <v>-0.004023421014707799</v>
+      </c>
+      <c r="J11">
+        <v>-0.02723437442298889</v>
+      </c>
+      <c r="K11">
+        <v>0.02562068332783738</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.007406418695345622</v>
+        <v>0.01789342907052956</v>
       </c>
       <c r="C12">
-        <v>-0.04623874222623038</v>
+        <v>0.0525113995885195</v>
       </c>
       <c r="D12">
-        <v>-0.03796606414554642</v>
+        <v>-0.02612722392673627</v>
       </c>
       <c r="E12">
-        <v>-0.02938222223835054</v>
+        <v>0.006996427125113447</v>
       </c>
       <c r="F12">
-        <v>0.01643407507960994</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01815046752602006</v>
+      </c>
+      <c r="G12">
+        <v>-0.000881261130228053</v>
+      </c>
+      <c r="H12">
+        <v>0.008849576095088886</v>
+      </c>
+      <c r="I12">
+        <v>-0.02475499169158058</v>
+      </c>
+      <c r="J12">
+        <v>-0.0269272760444016</v>
+      </c>
+      <c r="K12">
+        <v>0.01168655968181479</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.007269972437784572</v>
+        <v>0.007824765537323098</v>
       </c>
       <c r="C13">
-        <v>-0.1144203889665839</v>
+        <v>0.1088670519076605</v>
       </c>
       <c r="D13">
-        <v>-0.05664958620470269</v>
+        <v>-0.0440512390398367</v>
       </c>
       <c r="E13">
-        <v>0.06759693833903226</v>
+        <v>0.001282182553669058</v>
       </c>
       <c r="F13">
-        <v>0.08506482064296962</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.0378880078445803</v>
+      </c>
+      <c r="G13">
+        <v>-0.1581119119993132</v>
+      </c>
+      <c r="H13">
+        <v>-0.06701885780650053</v>
+      </c>
+      <c r="I13">
+        <v>-0.02513199563460473</v>
+      </c>
+      <c r="J13">
+        <v>-0.2280448893833903</v>
+      </c>
+      <c r="K13">
+        <v>-0.1806130321686353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.01375440685149367</v>
+        <v>0.02218036930985884</v>
       </c>
       <c r="C14">
-        <v>-0.08332678271073453</v>
+        <v>0.07331017457586426</v>
       </c>
       <c r="D14">
-        <v>-0.05507832796492806</v>
+        <v>-0.04638797336209403</v>
       </c>
       <c r="E14">
-        <v>-0.0008198081728056898</v>
+        <v>-0.01524869075238143</v>
       </c>
       <c r="F14">
-        <v>0.04190350921328691</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.03725214472546787</v>
+      </c>
+      <c r="G14">
+        <v>-0.02573544815587919</v>
+      </c>
+      <c r="H14">
+        <v>0.04210965399600861</v>
+      </c>
+      <c r="I14">
+        <v>-0.09851402919197558</v>
+      </c>
+      <c r="J14">
+        <v>-0.1889267530872052</v>
+      </c>
+      <c r="K14">
+        <v>0.02680974070275104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.004046123388382655</v>
+        <v>0.003936941199183147</v>
       </c>
       <c r="C15">
-        <v>-0.07852634767894695</v>
+        <v>0.0710967292722587</v>
       </c>
       <c r="D15">
-        <v>-0.02861669998270244</v>
+        <v>-0.03265665578127609</v>
       </c>
       <c r="E15">
-        <v>0.01522894446219464</v>
+        <v>0.006249379995947608</v>
       </c>
       <c r="F15">
-        <v>-0.003090900426221409</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0.03431378724891387</v>
+      </c>
+      <c r="G15">
+        <v>-0.01669052546560801</v>
+      </c>
+      <c r="H15">
+        <v>0.03301288843737985</v>
+      </c>
+      <c r="I15">
+        <v>-0.04014792412585661</v>
+      </c>
+      <c r="J15">
+        <v>-0.06938275250669713</v>
+      </c>
+      <c r="K15">
+        <v>0.02300989906136604</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.008577558902500303</v>
+        <v>0.01743450413196644</v>
       </c>
       <c r="C16">
-        <v>-0.05454082190437252</v>
+        <v>0.06030291456786712</v>
       </c>
       <c r="D16">
-        <v>-0.0292096970164675</v>
+        <v>-0.02703188388376583</v>
       </c>
       <c r="E16">
-        <v>-0.02386029545596684</v>
+        <v>0.006389986763792103</v>
       </c>
       <c r="F16">
-        <v>0.003389938188029507</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.001005332372760287</v>
+      </c>
+      <c r="G16">
+        <v>0.006097396092088473</v>
+      </c>
+      <c r="H16">
+        <v>0.007646457064048331</v>
+      </c>
+      <c r="I16">
+        <v>-0.006372857259686652</v>
+      </c>
+      <c r="J16">
+        <v>-0.02250794998908928</v>
+      </c>
+      <c r="K16">
+        <v>0.02045651386741677</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1292,25 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1327,25 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1362,270 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.01171232393403723</v>
+        <v>0.01687759192736092</v>
       </c>
       <c r="C20">
-        <v>-0.09639843153803232</v>
+        <v>0.08512103666522822</v>
       </c>
       <c r="D20">
-        <v>-0.04410724007915631</v>
+        <v>-0.02743505354384584</v>
       </c>
       <c r="E20">
-        <v>-0.05580481987028873</v>
+        <v>-0.002802466519634816</v>
       </c>
       <c r="F20">
-        <v>0.005272926023938595</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01332325000976607</v>
+      </c>
+      <c r="G20">
+        <v>0.01900909459229361</v>
+      </c>
+      <c r="H20">
+        <v>0.03652990819802778</v>
+      </c>
+      <c r="I20">
+        <v>-0.04185924279489286</v>
+      </c>
+      <c r="J20">
+        <v>-0.05801946624648963</v>
+      </c>
+      <c r="K20">
+        <v>0.01550664397199727</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.008077526962895572</v>
+        <v>0.01447762628130414</v>
       </c>
       <c r="C21">
-        <v>-0.07737575138628489</v>
+        <v>0.06890956809634385</v>
       </c>
       <c r="D21">
-        <v>-0.004899527250709209</v>
+        <v>-0.01703510089890244</v>
       </c>
       <c r="E21">
-        <v>0.02543552243441816</v>
+        <v>-0.02399408526310586</v>
       </c>
       <c r="F21">
-        <v>0.09764798484193558</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.07117797701904052</v>
+      </c>
+      <c r="G21">
+        <v>-0.06250318865469158</v>
+      </c>
+      <c r="H21">
+        <v>0.04428200667359675</v>
+      </c>
+      <c r="I21">
+        <v>-0.02605779775146044</v>
+      </c>
+      <c r="J21">
+        <v>-0.1289402915019266</v>
+      </c>
+      <c r="K21">
+        <v>-0.0128749026895497</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.002072513032337527</v>
+        <v>0.009216051495964208</v>
       </c>
       <c r="C22">
-        <v>-0.258847315299302</v>
+        <v>0.1667435198894015</v>
       </c>
       <c r="D22">
-        <v>0.0875593802997289</v>
+        <v>-0.01835767587396421</v>
       </c>
       <c r="E22">
-        <v>0.3571692517505293</v>
+        <v>-0.008332082672180422</v>
       </c>
       <c r="F22">
-        <v>-0.2589551026698307</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>0.3398938624867219</v>
+      </c>
+      <c r="G22">
+        <v>-0.3909016324167388</v>
+      </c>
+      <c r="H22">
+        <v>-0.224313343636581</v>
+      </c>
+      <c r="I22">
+        <v>0.1164960265325201</v>
+      </c>
+      <c r="J22">
+        <v>0.2387718648232979</v>
+      </c>
+      <c r="K22">
+        <v>0.0295896785521958</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.001176230290619484</v>
+        <v>0.01436230243925604</v>
       </c>
       <c r="C23">
-        <v>-0.2621829899971752</v>
+        <v>0.1698477267677664</v>
       </c>
       <c r="D23">
-        <v>0.09238454411893499</v>
+        <v>-0.01813114831904605</v>
       </c>
       <c r="E23">
-        <v>0.3511875932971705</v>
+        <v>-0.005261837765931547</v>
       </c>
       <c r="F23">
-        <v>-0.2559131201014297</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0.3295860849114556</v>
+      </c>
+      <c r="G23">
+        <v>-0.3807980432355939</v>
+      </c>
+      <c r="H23">
+        <v>-0.2121940567060315</v>
+      </c>
+      <c r="I23">
+        <v>0.1118526039006647</v>
+      </c>
+      <c r="J23">
+        <v>0.2199699001424217</v>
+      </c>
+      <c r="K23">
+        <v>0.03390623251190429</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.006319322674569077</v>
+        <v>0.01812898654652745</v>
       </c>
       <c r="C24">
-        <v>-0.06021260611962031</v>
+        <v>0.06410339654078492</v>
       </c>
       <c r="D24">
-        <v>-0.04796418632799115</v>
+        <v>-0.04099033734689885</v>
       </c>
       <c r="E24">
-        <v>-0.02943820835155548</v>
+        <v>0.01093753148487299</v>
       </c>
       <c r="F24">
-        <v>-0.0004508606951705219</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.0005968789494558662</v>
+      </c>
+      <c r="G24">
+        <v>0.006847541949972275</v>
+      </c>
+      <c r="H24">
+        <v>0.01155231670173285</v>
+      </c>
+      <c r="I24">
+        <v>-0.01563144106115365</v>
+      </c>
+      <c r="J24">
+        <v>-0.03956513348221318</v>
+      </c>
+      <c r="K24">
+        <v>0.02088747475346256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.007575999244336395</v>
+        <v>0.02296666489446324</v>
       </c>
       <c r="C25">
-        <v>-0.06445969350482829</v>
+        <v>0.06834494976535339</v>
       </c>
       <c r="D25">
-        <v>-0.02660844991436469</v>
+        <v>-0.03439034309347685</v>
       </c>
       <c r="E25">
-        <v>-0.03213073699749271</v>
+        <v>0.01656808413759413</v>
       </c>
       <c r="F25">
-        <v>0.006836285355538279</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.003286127638108534</v>
+      </c>
+      <c r="G25">
+        <v>0.004948768993142568</v>
+      </c>
+      <c r="H25">
+        <v>0.01569526803853444</v>
+      </c>
+      <c r="I25">
+        <v>-0.007410712574145145</v>
+      </c>
+      <c r="J25">
+        <v>-0.03612120577943476</v>
+      </c>
+      <c r="K25">
+        <v>0.01078102908293294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.01206184179541427</v>
+        <v>0.02320880829916998</v>
       </c>
       <c r="C26">
-        <v>-0.04667375577619941</v>
+        <v>0.05298046700052821</v>
       </c>
       <c r="D26">
-        <v>-0.08481201811455323</v>
+        <v>-0.06182278177876652</v>
       </c>
       <c r="E26">
-        <v>-0.02318030006487127</v>
+        <v>0.007196967573700211</v>
       </c>
       <c r="F26">
-        <v>0.03064255461352085</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.00561861686770998</v>
+      </c>
+      <c r="G26">
+        <v>0.01199891015283254</v>
+      </c>
+      <c r="H26">
+        <v>0.04120082555307462</v>
+      </c>
+      <c r="I26">
+        <v>0.00792596021920975</v>
+      </c>
+      <c r="J26">
+        <v>-0.1169158709614981</v>
+      </c>
+      <c r="K26">
+        <v>0.06745213265204481</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1642,340 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.3435982622647089</v>
+        <v>0.3035448414837855</v>
       </c>
       <c r="C28">
-        <v>0.1007553809930229</v>
+        <v>-0.1274608434451621</v>
       </c>
       <c r="D28">
-        <v>0.03116199625479516</v>
+        <v>0.03336417010240177</v>
       </c>
       <c r="E28">
-        <v>0.000466766193524425</v>
+        <v>-0.007556716138710222</v>
       </c>
       <c r="F28">
-        <v>-0.03876387299796628</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.01569475187667901</v>
+      </c>
+      <c r="G28">
+        <v>-0.05043858611245552</v>
+      </c>
+      <c r="H28">
+        <v>0.06808780950368727</v>
+      </c>
+      <c r="I28">
+        <v>0.07404310191160243</v>
+      </c>
+      <c r="J28">
+        <v>-0.02668720284100078</v>
+      </c>
+      <c r="K28">
+        <v>-0.2090147827905377</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.007513908918878297</v>
+        <v>0.01857517193437588</v>
       </c>
       <c r="C29">
-        <v>-0.0792117260927629</v>
+        <v>0.08258017120613097</v>
       </c>
       <c r="D29">
-        <v>-0.0595293842061279</v>
+        <v>-0.04802784716577581</v>
       </c>
       <c r="E29">
-        <v>-0.01900202527301224</v>
+        <v>0.01109668995052887</v>
       </c>
       <c r="F29">
-        <v>0.03746755848981675</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.04091980249493173</v>
+      </c>
+      <c r="G29">
+        <v>-0.02377201064188114</v>
+      </c>
+      <c r="H29">
+        <v>0.04269817554853468</v>
+      </c>
+      <c r="I29">
+        <v>-0.1571134687652521</v>
+      </c>
+      <c r="J29">
+        <v>-0.2671433556078063</v>
+      </c>
+      <c r="K29">
+        <v>0.01702751137331343</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.02366903857433907</v>
+        <v>0.03908834467406526</v>
       </c>
       <c r="C30">
-        <v>-0.164313076124523</v>
+        <v>0.1458184562732392</v>
       </c>
       <c r="D30">
-        <v>-0.06443897068566204</v>
+        <v>-0.05368133591216725</v>
       </c>
       <c r="E30">
-        <v>0.03349802582003449</v>
+        <v>0.001321284719228108</v>
       </c>
       <c r="F30">
-        <v>-0.02033459465649444</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.03917643354068379</v>
+      </c>
+      <c r="G30">
+        <v>-0.03602233173626413</v>
+      </c>
+      <c r="H30">
+        <v>0.02399458520856732</v>
+      </c>
+      <c r="I30">
+        <v>-0.04417912656835128</v>
+      </c>
+      <c r="J30">
+        <v>-0.03049296607954169</v>
+      </c>
+      <c r="K30">
+        <v>0.05951898297131815</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.002693489291269486</v>
+        <v>0.0161001241222409</v>
       </c>
       <c r="C31">
-        <v>-0.05482528176068841</v>
+        <v>0.0756906189459155</v>
       </c>
       <c r="D31">
-        <v>-0.03654943500157968</v>
+        <v>-0.04224093964752669</v>
       </c>
       <c r="E31">
-        <v>-0.009911708808100241</v>
+        <v>5.278961082355958e-05</v>
       </c>
       <c r="F31">
-        <v>-0.002863708694933897</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.01046245811600791</v>
+      </c>
+      <c r="G31">
+        <v>-0.006660571191350271</v>
+      </c>
+      <c r="H31">
+        <v>0.03471819411821907</v>
+      </c>
+      <c r="I31">
+        <v>0.007023895828142926</v>
+      </c>
+      <c r="J31">
+        <v>-0.03358842469524787</v>
+      </c>
+      <c r="K31">
+        <v>0.01383719041314755</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.01131968191461472</v>
+        <v>0.02142702062377777</v>
       </c>
       <c r="C32">
-        <v>-0.08027630427003499</v>
+        <v>0.04773040463484763</v>
       </c>
       <c r="D32">
-        <v>-0.01791048056970731</v>
+        <v>-0.02817799602555424</v>
       </c>
       <c r="E32">
-        <v>0.1616277453398147</v>
+        <v>0.008898234243852429</v>
       </c>
       <c r="F32">
-        <v>0.009096572666783972</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.0004919636883951362</v>
+      </c>
+      <c r="G32">
+        <v>-0.1067091473633683</v>
+      </c>
+      <c r="H32">
+        <v>-0.02475199688774311</v>
+      </c>
+      <c r="I32">
+        <v>-0.04321696890913443</v>
+      </c>
+      <c r="J32">
+        <v>-0.1844055433470222</v>
+      </c>
+      <c r="K32">
+        <v>-0.2336424900893394</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.009771626354431528</v>
+        <v>0.01842166805255686</v>
       </c>
       <c r="C33">
-        <v>-0.09372679395040341</v>
+        <v>0.1008013077373661</v>
       </c>
       <c r="D33">
-        <v>-0.06302830988577471</v>
+        <v>-0.05113622025930282</v>
       </c>
       <c r="E33">
-        <v>-0.02146954911310393</v>
+        <v>-0.00204807051189721</v>
       </c>
       <c r="F33">
-        <v>0.004622536297136649</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.01851095505159798</v>
+      </c>
+      <c r="G33">
+        <v>-0.01365717800995287</v>
+      </c>
+      <c r="H33">
+        <v>0.006782158331522557</v>
+      </c>
+      <c r="I33">
+        <v>-0.02689022118662257</v>
+      </c>
+      <c r="J33">
+        <v>-0.06206387124078564</v>
+      </c>
+      <c r="K33">
+        <v>-0.01689481219480784</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.005071448347874077</v>
+        <v>0.01820183873295906</v>
       </c>
       <c r="C34">
-        <v>-0.04733829949559131</v>
+        <v>0.04997185922849469</v>
       </c>
       <c r="D34">
-        <v>-0.02506568784525296</v>
+        <v>-0.02180348634926551</v>
       </c>
       <c r="E34">
-        <v>-0.015301179951122</v>
+        <v>0.01539923349106476</v>
       </c>
       <c r="F34">
-        <v>0.0231937083690982</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.007069945564470461</v>
+      </c>
+      <c r="G34">
+        <v>0.006372790620505269</v>
+      </c>
+      <c r="H34">
+        <v>0.01149618729139639</v>
+      </c>
+      <c r="I34">
+        <v>-0.02881162901722402</v>
+      </c>
+      <c r="J34">
+        <v>0.002049478167525792</v>
+      </c>
+      <c r="K34">
+        <v>0.01051655959514056</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.002700806023344722</v>
+        <v>0.01263921960028811</v>
       </c>
       <c r="C35">
-        <v>-0.03064114651940817</v>
+        <v>0.04995873093544639</v>
       </c>
       <c r="D35">
-        <v>-0.01592231524087626</v>
+        <v>-0.02336805881632288</v>
       </c>
       <c r="E35">
-        <v>-0.007483125060648297</v>
+        <v>-0.0035213796707859</v>
       </c>
       <c r="F35">
-        <v>0.0119690568546525</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>-0.00529472905769575</v>
+      </c>
+      <c r="G35">
+        <v>-0.01161748649426106</v>
+      </c>
+      <c r="H35">
+        <v>0.05057053884438698</v>
+      </c>
+      <c r="I35">
+        <v>-0.07397436727042911</v>
+      </c>
+      <c r="J35">
+        <v>-0.1323694123049701</v>
+      </c>
+      <c r="K35">
+        <v>7.754960411025818e-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.008419292893721701</v>
+        <v>0.01435841697776131</v>
       </c>
       <c r="C36">
-        <v>-0.04638668991200557</v>
+        <v>0.04515077902605116</v>
       </c>
       <c r="D36">
-        <v>-0.05203088006819357</v>
+        <v>-0.03964740474673496</v>
       </c>
       <c r="E36">
-        <v>-0.01601983888474081</v>
+        <v>-0.008154981981802631</v>
       </c>
       <c r="F36">
-        <v>0.006503225415141444</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.01144605500756162</v>
+      </c>
+      <c r="G36">
+        <v>-0.01217571018241289</v>
+      </c>
+      <c r="H36">
+        <v>0.02772874711523252</v>
+      </c>
+      <c r="I36">
+        <v>0.003549108350902579</v>
+      </c>
+      <c r="J36">
+        <v>-0.08831902742655848</v>
+      </c>
+      <c r="K36">
+        <v>0.02266734781192229</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +1992,165 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.02694285223779328</v>
+        <v>0.01164890763295748</v>
       </c>
       <c r="C38">
-        <v>-0.04370015032243083</v>
+        <v>0.05737069473456656</v>
       </c>
       <c r="D38">
-        <v>-0.03640886537981428</v>
+        <v>-0.03729077224659225</v>
       </c>
       <c r="E38">
-        <v>-0.02751423894593414</v>
+        <v>-0.03019715520691864</v>
       </c>
       <c r="F38">
-        <v>-0.001952669033633717</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.03541428047484897</v>
+      </c>
+      <c r="G38">
+        <v>0.0008808741248947221</v>
+      </c>
+      <c r="H38">
+        <v>0.01690057093520481</v>
+      </c>
+      <c r="I38">
+        <v>-0.03643730677804823</v>
+      </c>
+      <c r="J38">
+        <v>-0.08093436239963538</v>
+      </c>
+      <c r="K38">
+        <v>-0.06357131545450248</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.005393241538641754</v>
+        <v>0.02680592970859538</v>
       </c>
       <c r="C39">
-        <v>-0.1229050589666619</v>
+        <v>0.1291299061030949</v>
       </c>
       <c r="D39">
-        <v>-0.06189757773701267</v>
+        <v>-0.05886101811616693</v>
       </c>
       <c r="E39">
-        <v>-0.02034370780688974</v>
+        <v>-0.0005923961061181644</v>
       </c>
       <c r="F39">
-        <v>0.02869654520087274</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.01248083438810835</v>
+      </c>
+      <c r="G39">
+        <v>0.004527707235120686</v>
+      </c>
+      <c r="H39">
+        <v>0.0184289249105882</v>
+      </c>
+      <c r="I39">
+        <v>-0.05672261390727303</v>
+      </c>
+      <c r="J39">
+        <v>-0.0239527792300068</v>
+      </c>
+      <c r="K39">
+        <v>0.09396205801024139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.0166191280838729</v>
+        <v>0.0240304615716722</v>
       </c>
       <c r="C40">
-        <v>-0.05231382837247588</v>
+        <v>0.07852661967528772</v>
       </c>
       <c r="D40">
-        <v>-0.02449011622249421</v>
+        <v>-0.0387016059803906</v>
       </c>
       <c r="E40">
-        <v>0.02423313600877672</v>
+        <v>0.01116154376860324</v>
       </c>
       <c r="F40">
-        <v>-0.02413080882423521</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.007726890061246922</v>
+      </c>
+      <c r="G40">
+        <v>-0.0246092772511761</v>
+      </c>
+      <c r="H40">
+        <v>-0.03500257502026675</v>
+      </c>
+      <c r="I40">
+        <v>-0.100182654161722</v>
+      </c>
+      <c r="J40">
+        <v>-0.08314045682473149</v>
+      </c>
+      <c r="K40">
+        <v>-0.02348053696152473</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.0120397193975785</v>
+        <v>0.02297407896291003</v>
       </c>
       <c r="C41">
-        <v>-0.02460573447587106</v>
+        <v>0.04559735827920013</v>
       </c>
       <c r="D41">
-        <v>-0.004026807134049507</v>
+        <v>-0.0150698794227817</v>
       </c>
       <c r="E41">
-        <v>-0.01416280508800728</v>
+        <v>-0.0006616325120203126</v>
       </c>
       <c r="F41">
-        <v>0.0001269602733459774</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.004695720178696127</v>
+      </c>
+      <c r="G41">
+        <v>0.01102202569764243</v>
+      </c>
+      <c r="H41">
+        <v>0.006206983451289658</v>
+      </c>
+      <c r="I41">
+        <v>0.004968709119385582</v>
+      </c>
+      <c r="J41">
+        <v>-0.02983630485072944</v>
+      </c>
+      <c r="K41">
+        <v>-0.02601215167008741</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2167,95 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.00642792900871716</v>
+        <v>0.02064467284764918</v>
       </c>
       <c r="C43">
-        <v>-0.02607391541118784</v>
+        <v>0.04618115716250527</v>
       </c>
       <c r="D43">
-        <v>-0.02498887353845437</v>
+        <v>-0.02735082245742107</v>
       </c>
       <c r="E43">
-        <v>-0.008137229885654067</v>
+        <v>-0.0007813084095889074</v>
       </c>
       <c r="F43">
-        <v>-0.004722746941056019</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.008086462423027064</v>
+      </c>
+      <c r="G43">
+        <v>0.009169040987522373</v>
+      </c>
+      <c r="H43">
+        <v>0.01230892748147723</v>
+      </c>
+      <c r="I43">
+        <v>-0.004957113242044829</v>
+      </c>
+      <c r="J43">
+        <v>-0.03957185699092661</v>
+      </c>
+      <c r="K43">
+        <v>0.0004683948554559417</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.01015366872694382</v>
+        <v>0.01926835990157453</v>
       </c>
       <c r="C44">
-        <v>-0.110925970152016</v>
+        <v>0.09945877627251506</v>
       </c>
       <c r="D44">
-        <v>-0.04811225226006523</v>
+        <v>-0.06365471576950528</v>
       </c>
       <c r="E44">
-        <v>0.03490012427257801</v>
+        <v>-0.01492690217077223</v>
       </c>
       <c r="F44">
-        <v>-0.03110444218252632</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.05301371862603601</v>
+      </c>
+      <c r="G44">
+        <v>-0.0396746645523515</v>
+      </c>
+      <c r="H44">
+        <v>-0.01398122237737665</v>
+      </c>
+      <c r="I44">
+        <v>-0.03821127074772011</v>
+      </c>
+      <c r="J44">
+        <v>-0.05380786010971046</v>
+      </c>
+      <c r="K44">
+        <v>0.06737432213005248</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2272,235 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.005167821665765565</v>
+        <v>0.007308572698277455</v>
       </c>
       <c r="C46">
-        <v>-0.07063186407339464</v>
+        <v>0.06940625959810151</v>
       </c>
       <c r="D46">
-        <v>-0.0680706049737352</v>
+        <v>-0.02684607659525785</v>
       </c>
       <c r="E46">
-        <v>-0.001485096055430425</v>
+        <v>-0.01992040720568128</v>
       </c>
       <c r="F46">
-        <v>0.01610001700911404</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.01833934458340602</v>
+      </c>
+      <c r="G46">
+        <v>0.003622086745871606</v>
+      </c>
+      <c r="H46">
+        <v>0.01013571534480982</v>
+      </c>
+      <c r="I46">
+        <v>-0.01327654200444641</v>
+      </c>
+      <c r="J46">
+        <v>-0.1000596862169414</v>
+      </c>
+      <c r="K46">
+        <v>0.01932973665943709</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.009152754436298439</v>
+        <v>0.02151922081236735</v>
       </c>
       <c r="C47">
-        <v>-0.05807730599959978</v>
+        <v>0.06854752886558366</v>
       </c>
       <c r="D47">
-        <v>-0.04464507620482722</v>
+        <v>-0.04632392581789262</v>
       </c>
       <c r="E47">
-        <v>-0.0336117554708907</v>
+        <v>0.009566918983224659</v>
       </c>
       <c r="F47">
-        <v>0.03971685713421791</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.00430277588189171</v>
+      </c>
+      <c r="G47">
+        <v>0.004361890973174211</v>
+      </c>
+      <c r="H47">
+        <v>0.02156315293240483</v>
+      </c>
+      <c r="I47">
+        <v>-0.005137982044124517</v>
+      </c>
+      <c r="J47">
+        <v>-0.07001387894465877</v>
+      </c>
+      <c r="K47">
+        <v>-0.01824554031362268</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.01068822266153965</v>
+        <v>0.01789584795660916</v>
       </c>
       <c r="C48">
-        <v>-0.05334873962416628</v>
+        <v>0.04760084777558515</v>
       </c>
       <c r="D48">
-        <v>-0.07188377017285523</v>
+        <v>-0.05390471305428044</v>
       </c>
       <c r="E48">
-        <v>-0.03176577735117388</v>
+        <v>0.01518757975629596</v>
       </c>
       <c r="F48">
-        <v>0.008006657745390057</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.01909347128814677</v>
+      </c>
+      <c r="G48">
+        <v>-0.005386845017755698</v>
+      </c>
+      <c r="H48">
+        <v>0.0461769669204393</v>
+      </c>
+      <c r="I48">
+        <v>0.01353545461762795</v>
+      </c>
+      <c r="J48">
+        <v>-0.1164752505364971</v>
+      </c>
+      <c r="K48">
+        <v>0.04605113181159592</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.02697738205310818</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.05937494636845943</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.01825622881659088</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.04147957085834532</v>
       </c>
       <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>-0.03345673077134585</v>
+      </c>
+      <c r="G49">
+        <v>0.06602321830706744</v>
+      </c>
+      <c r="H49">
+        <v>0.02386336293094948</v>
+      </c>
+      <c r="I49">
+        <v>-0.1024528940001531</v>
+      </c>
+      <c r="J49">
+        <v>0.1016190355484641</v>
+      </c>
+      <c r="K49">
+        <v>0.05712987230413267</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.003131163820009306</v>
+        <v>0.01630373747959793</v>
       </c>
       <c r="C50">
-        <v>-0.05794142705437497</v>
+        <v>0.07333449771390491</v>
       </c>
       <c r="D50">
-        <v>-0.03697536417286092</v>
+        <v>-0.03217599116853165</v>
       </c>
       <c r="E50">
-        <v>0.004307782561465541</v>
+        <v>0.006668533307458297</v>
       </c>
       <c r="F50">
-        <v>-0.01024912309847944</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.01987220732650589</v>
+      </c>
+      <c r="G50">
+        <v>-0.00843284731434722</v>
+      </c>
+      <c r="H50">
+        <v>0.03516138051535004</v>
+      </c>
+      <c r="I50">
+        <v>-0.01948249665412794</v>
+      </c>
+      <c r="J50">
+        <v>-0.0539722912628047</v>
+      </c>
+      <c r="K50">
+        <v>-0.04248919468371506</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.002507193904398341</v>
+        <v>-0.004778610057586907</v>
       </c>
       <c r="C51">
-        <v>-0.07338112025805626</v>
+        <v>0.03567014864230826</v>
       </c>
       <c r="D51">
-        <v>-0.04020989925511204</v>
+        <v>-0.02389411462512157</v>
       </c>
       <c r="E51">
-        <v>0.03025947358536945</v>
+        <v>-0.02266466556316818</v>
       </c>
       <c r="F51">
-        <v>-0.01092307868955784</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.007227521004458872</v>
+      </c>
+      <c r="G51">
+        <v>-0.0239566776256999</v>
+      </c>
+      <c r="H51">
+        <v>0.01611049652718089</v>
+      </c>
+      <c r="I51">
+        <v>-0.01980259874886131</v>
+      </c>
+      <c r="J51">
+        <v>-0.1055001901481425</v>
+      </c>
+      <c r="K51">
+        <v>0.02389449875392004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2517,165 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.03146450749763867</v>
+        <v>0.06357255780647357</v>
       </c>
       <c r="C53">
-        <v>-0.1038618972734235</v>
+        <v>0.1282403354958094</v>
       </c>
       <c r="D53">
-        <v>-0.05762355886152618</v>
+        <v>-0.05809994389285914</v>
       </c>
       <c r="E53">
-        <v>-0.08808847472258174</v>
+        <v>0.01541822338544201</v>
       </c>
       <c r="F53">
-        <v>0.001252677358595952</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.04506986395203454</v>
+      </c>
+      <c r="G53">
+        <v>0.04137295561988531</v>
+      </c>
+      <c r="H53">
+        <v>0.04435050436666398</v>
+      </c>
+      <c r="I53">
+        <v>0.08004299018935405</v>
+      </c>
+      <c r="J53">
+        <v>0.04606946963759818</v>
+      </c>
+      <c r="K53">
+        <v>-0.03017981906065902</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.006132559136353974</v>
+        <v>0.0175781462131494</v>
       </c>
       <c r="C54">
-        <v>-0.07251142556142606</v>
+        <v>0.07010547824291069</v>
       </c>
       <c r="D54">
-        <v>-0.02143649180584671</v>
+        <v>-0.0107068167903483</v>
       </c>
       <c r="E54">
-        <v>-0.04080274342492987</v>
+        <v>0.004323839397857071</v>
       </c>
       <c r="F54">
-        <v>-0.004080115209710647</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.001229903336107884</v>
+      </c>
+      <c r="G54">
+        <v>0.002266950768308679</v>
+      </c>
+      <c r="H54">
+        <v>0.009152005626823622</v>
+      </c>
+      <c r="I54">
+        <v>-0.008330464411215696</v>
+      </c>
+      <c r="J54">
+        <v>-0.06152595585404324</v>
+      </c>
+      <c r="K54">
+        <v>0.03152796204733014</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.01519122790295357</v>
+        <v>0.0324873197870685</v>
       </c>
       <c r="C55">
-        <v>-0.05547673029640616</v>
+        <v>0.08057337225277279</v>
       </c>
       <c r="D55">
-        <v>-0.05723409382672109</v>
+        <v>-0.05364624724726662</v>
       </c>
       <c r="E55">
-        <v>-0.05967525101461552</v>
+        <v>0.01715950112335566</v>
       </c>
       <c r="F55">
-        <v>0.02709395999081346</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.02699987809067404</v>
+      </c>
+      <c r="G55">
+        <v>0.03052284801589411</v>
+      </c>
+      <c r="H55">
+        <v>0.01669629629112296</v>
+      </c>
+      <c r="I55">
+        <v>0.03601659919554263</v>
+      </c>
+      <c r="J55">
+        <v>0.005765766297558145</v>
+      </c>
+      <c r="K55">
+        <v>0.006796405212055432</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.01390346199291268</v>
+        <v>0.05763319060249104</v>
       </c>
       <c r="C56">
-        <v>-0.1349639490205182</v>
+        <v>0.1592411256294876</v>
       </c>
       <c r="D56">
-        <v>-0.06609548912543908</v>
+        <v>-0.08545672463857722</v>
       </c>
       <c r="E56">
-        <v>-0.05510013099509308</v>
+        <v>0.03343261379899862</v>
       </c>
       <c r="F56">
-        <v>0.02243228400415358</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.09663599126013703</v>
+      </c>
+      <c r="G56">
+        <v>0.05937215692545307</v>
+      </c>
+      <c r="H56">
+        <v>0.09677111029555413</v>
+      </c>
+      <c r="I56">
+        <v>0.152664948955214</v>
+      </c>
+      <c r="J56">
+        <v>0.08524322104001618</v>
+      </c>
+      <c r="K56">
+        <v>-0.005322019614467287</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,250 +2692,445 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.02208216702520345</v>
+        <v>0.01772780984884359</v>
       </c>
       <c r="C58">
-        <v>-0.2720718086996192</v>
+        <v>0.1647552478114699</v>
       </c>
       <c r="D58">
-        <v>0.02738333455699455</v>
+        <v>-0.04050908694790711</v>
       </c>
       <c r="E58">
-        <v>0.1869050068336379</v>
+        <v>-0.08297492010840679</v>
       </c>
       <c r="F58">
-        <v>-0.168982394773595</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.2105018905457596</v>
+      </c>
+      <c r="G58">
+        <v>-0.2733801056355328</v>
+      </c>
+      <c r="H58">
+        <v>0.009564963799217754</v>
+      </c>
+      <c r="I58">
+        <v>0.04938066089881976</v>
+      </c>
+      <c r="J58">
+        <v>-0.147628271969157</v>
+      </c>
+      <c r="K58">
+        <v>-0.04166990049067655</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.2917521215006039</v>
+        <v>0.2862651432817492</v>
       </c>
       <c r="C59">
-        <v>0.002616602733666789</v>
+        <v>-0.06082721164528088</v>
       </c>
       <c r="D59">
-        <v>0.0157680829820453</v>
+        <v>0.009984062981350416</v>
       </c>
       <c r="E59">
-        <v>0.06057286983503794</v>
+        <v>-0.008167568483464005</v>
       </c>
       <c r="F59">
-        <v>0.04343110169150834</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.01172682176433609</v>
+      </c>
+      <c r="G59">
+        <v>-0.06060792135791899</v>
+      </c>
+      <c r="H59">
+        <v>-0.0235795500999507</v>
+      </c>
+      <c r="I59">
+        <v>0.01195770690491819</v>
+      </c>
+      <c r="J59">
+        <v>0.006371675107787959</v>
+      </c>
+      <c r="K59">
+        <v>-0.03773571414204509</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.1274742403917591</v>
+        <v>0.1595850728368282</v>
       </c>
       <c r="C60">
-        <v>-0.1486587472489757</v>
+        <v>0.1606408782168433</v>
       </c>
       <c r="D60">
-        <v>-0.0699375590257956</v>
+        <v>-0.03323525025733969</v>
       </c>
       <c r="E60">
-        <v>-0.1411272990715665</v>
+        <v>0.07819986664957775</v>
       </c>
       <c r="F60">
-        <v>0.2398018790772857</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.1140984665500579</v>
+      </c>
+      <c r="G60">
+        <v>0.1115071797682747</v>
+      </c>
+      <c r="H60">
+        <v>-0.284761367928667</v>
+      </c>
+      <c r="I60">
+        <v>-0.09270096936909902</v>
+      </c>
+      <c r="J60">
+        <v>0.1192250248005616</v>
+      </c>
+      <c r="K60">
+        <v>0.05693058460292535</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.006692369135666575</v>
+        <v>0.02748835915236333</v>
       </c>
       <c r="C61">
-        <v>-0.08735653136118354</v>
+        <v>0.09960408728654781</v>
       </c>
       <c r="D61">
-        <v>-0.07679501150712166</v>
+        <v>-0.05478139325478446</v>
       </c>
       <c r="E61">
-        <v>-0.04451804953360752</v>
+        <v>0.01043343103914444</v>
       </c>
       <c r="F61">
-        <v>0.03497986770965807</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.01553364117937867</v>
+      </c>
+      <c r="G61">
+        <v>0.0233438500383339</v>
+      </c>
+      <c r="H61">
+        <v>0.03008865127410355</v>
+      </c>
+      <c r="I61">
+        <v>-0.04128474166160232</v>
+      </c>
+      <c r="J61">
+        <v>-0.03080951507437636</v>
+      </c>
+      <c r="K61">
+        <v>0.03349065412723877</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.002063320972742536</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.01581576104379532</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.004982475604785215</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.02955104887262659</v>
       </c>
       <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>0.0220972024540788</v>
+      </c>
+      <c r="G62">
+        <v>-0.007220386034878535</v>
+      </c>
+      <c r="H62">
+        <v>-0.0008137038296167536</v>
+      </c>
+      <c r="I62">
+        <v>-0.0243907694049265</v>
+      </c>
+      <c r="J62">
+        <v>-0.01656755149521818</v>
+      </c>
+      <c r="K62">
+        <v>-0.004511838321179112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.00091926888504114</v>
+        <v>0.02766581073350228</v>
       </c>
       <c r="C63">
-        <v>-0.05305727548519181</v>
+        <v>0.06210237956370139</v>
       </c>
       <c r="D63">
-        <v>-0.0468371247367901</v>
+        <v>-0.06009222194453708</v>
       </c>
       <c r="E63">
-        <v>-0.01125878461067347</v>
+        <v>0.006135244672872969</v>
       </c>
       <c r="F63">
-        <v>-0.005044463682987834</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.009102351915824272</v>
+      </c>
+      <c r="G63">
+        <v>0.004867344184928275</v>
+      </c>
+      <c r="H63">
+        <v>0.04092579061079388</v>
+      </c>
+      <c r="I63">
+        <v>-0.01470110085163615</v>
+      </c>
+      <c r="J63">
+        <v>-0.0486817504482622</v>
+      </c>
+      <c r="K63">
+        <v>0.02073377751205548</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.002698586407502534</v>
+        <v>0.01585579278449037</v>
       </c>
       <c r="C64">
-        <v>-0.09186295614746666</v>
+        <v>0.0850511955114424</v>
       </c>
       <c r="D64">
-        <v>-0.08310548711465107</v>
+        <v>-0.03079786321875896</v>
       </c>
       <c r="E64">
-        <v>-0.04463433176874457</v>
+        <v>0.009309065952008576</v>
       </c>
       <c r="F64">
-        <v>-0.005466209774706756</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.03821338188515878</v>
+      </c>
+      <c r="G64">
+        <v>-0.006132811664192329</v>
+      </c>
+      <c r="H64">
+        <v>-0.03340918656473432</v>
+      </c>
+      <c r="I64">
+        <v>-0.02975180875979368</v>
+      </c>
+      <c r="J64">
+        <v>-0.04785614221506622</v>
+      </c>
+      <c r="K64">
+        <v>0.0796793368914272</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.02289626165071086</v>
+        <v>0.03399695577892386</v>
       </c>
       <c r="C65">
-        <v>-0.09886016772050345</v>
+        <v>0.09144693855583123</v>
       </c>
       <c r="D65">
-        <v>-0.06405527305150063</v>
+        <v>-0.02041642610063841</v>
       </c>
       <c r="E65">
-        <v>-0.0490151128765511</v>
+        <v>-0.0207858987921883</v>
       </c>
       <c r="F65">
-        <v>0.01108648656242321</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.003730210656686809</v>
+      </c>
+      <c r="G65">
+        <v>0.01076758393345716</v>
+      </c>
+      <c r="H65">
+        <v>-0.05562747287687488</v>
+      </c>
+      <c r="I65">
+        <v>-0.0545175992486905</v>
+      </c>
+      <c r="J65">
+        <v>-0.01600433542948259</v>
+      </c>
+      <c r="K65">
+        <v>0.0917037711536931</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.002202884995145374</v>
+        <v>0.02619711057404944</v>
       </c>
       <c r="C66">
-        <v>-0.1750949179075593</v>
+        <v>0.1736416563377293</v>
       </c>
       <c r="D66">
-        <v>-0.04962239036993604</v>
+        <v>-0.05375215680505642</v>
       </c>
       <c r="E66">
-        <v>-0.002536467808112212</v>
+        <v>-0.006807037381451313</v>
       </c>
       <c r="F66">
-        <v>0.0349939142472015</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.01451678510976256</v>
+      </c>
+      <c r="G66">
+        <v>-0.008610587614035636</v>
+      </c>
+      <c r="H66">
+        <v>0.03869781316307964</v>
+      </c>
+      <c r="I66">
+        <v>-0.05249416030864096</v>
+      </c>
+      <c r="J66">
+        <v>-0.02933419182137851</v>
+      </c>
+      <c r="K66">
+        <v>0.06557536285878864</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.02974865671357215</v>
+        <v>0.02132483469030572</v>
       </c>
       <c r="C67">
-        <v>-0.01904824185138172</v>
+        <v>0.05006451906129494</v>
       </c>
       <c r="D67">
-        <v>-0.05121306823865356</v>
+        <v>-0.03820767734114919</v>
       </c>
       <c r="E67">
-        <v>-0.05979815244676993</v>
+        <v>-0.0272181907808432</v>
       </c>
       <c r="F67">
-        <v>0.01718385813666082</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.01152864598841209</v>
+      </c>
+      <c r="G67">
+        <v>0.02789270262745427</v>
+      </c>
+      <c r="H67">
+        <v>-0.02082694773269066</v>
+      </c>
+      <c r="I67">
+        <v>-0.03698103551789618</v>
+      </c>
+      <c r="J67">
+        <v>-0.07505684933886031</v>
+      </c>
+      <c r="K67">
+        <v>-0.04604696508998246</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.2973361921259896</v>
+        <v>0.2910772668109438</v>
       </c>
       <c r="C68">
-        <v>0.008406498982453776</v>
+        <v>-0.08584548325275737</v>
       </c>
       <c r="D68">
-        <v>-0.00933018780782322</v>
+        <v>0.02705178743015186</v>
       </c>
       <c r="E68">
-        <v>0.03588244250139285</v>
+        <v>0.01760175972380337</v>
       </c>
       <c r="F68">
-        <v>-0.01378110502592794</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.01663376424349016</v>
+      </c>
+      <c r="G68">
+        <v>-0.03552490381091641</v>
+      </c>
+      <c r="H68">
+        <v>0.01730474193314175</v>
+      </c>
+      <c r="I68">
+        <v>0.01891369785365806</v>
+      </c>
+      <c r="J68">
+        <v>-0.03550863882932424</v>
+      </c>
+      <c r="K68">
+        <v>-0.04900252944291261</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.01082842750645176</v>
+        <v>0.01041464101260498</v>
       </c>
       <c r="C69">
-        <v>-0.04573435179922863</v>
+        <v>0.04225015276416457</v>
       </c>
       <c r="D69">
-        <v>-0.04213313698732304</v>
+        <v>-0.02433094590318726</v>
       </c>
       <c r="E69">
-        <v>-0.03554157575659794</v>
+        <v>-0.007776554988375249</v>
       </c>
       <c r="F69">
-        <v>0.002508830976381677</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.005474974255848956</v>
+      </c>
+      <c r="G69">
+        <v>0.003614395100461931</v>
+      </c>
+      <c r="H69">
+        <v>-0.01667716031817213</v>
+      </c>
+      <c r="I69">
+        <v>-0.01500545686546338</v>
+      </c>
+      <c r="J69">
+        <v>-0.0405385048666279</v>
+      </c>
+      <c r="K69">
+        <v>-0.02294284108116117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,510 +3147,900 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.2859304194399214</v>
+        <v>0.2725572670443644</v>
       </c>
       <c r="C71">
-        <v>0.03572781287940345</v>
+        <v>-0.08605262681181447</v>
       </c>
       <c r="D71">
-        <v>0.01095001896158604</v>
+        <v>0.0212951896075789</v>
       </c>
       <c r="E71">
-        <v>0.03428596101973868</v>
+        <v>-0.005501027888288663</v>
       </c>
       <c r="F71">
-        <v>-0.03753019224043815</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.0462476925620495</v>
+      </c>
+      <c r="G71">
+        <v>-0.04943126906702289</v>
+      </c>
+      <c r="H71">
+        <v>0.01878670750770301</v>
+      </c>
+      <c r="I71">
+        <v>0.0208201848095284</v>
+      </c>
+      <c r="J71">
+        <v>-0.05212880842406893</v>
+      </c>
+      <c r="K71">
+        <v>-0.118944099846024</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.02059823427660396</v>
+        <v>0.05924179517890794</v>
       </c>
       <c r="C72">
-        <v>-0.1321304013485824</v>
+        <v>0.1336569757904209</v>
       </c>
       <c r="D72">
-        <v>-0.07088280370325151</v>
+        <v>-0.05100563675066545</v>
       </c>
       <c r="E72">
-        <v>-0.0388125052489524</v>
+        <v>0.0328366565620227</v>
       </c>
       <c r="F72">
-        <v>-0.01382230848583016</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.02153518703343762</v>
+      </c>
+      <c r="G72">
+        <v>0.02242275889325997</v>
+      </c>
+      <c r="H72">
+        <v>0.02038506291270318</v>
+      </c>
+      <c r="I72">
+        <v>0.0009398959735014183</v>
+      </c>
+      <c r="J72">
+        <v>-0.0451320609215211</v>
+      </c>
+      <c r="K72">
+        <v>0.1021906330925612</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.09933794021647337</v>
+        <v>0.1589955698851799</v>
       </c>
       <c r="C73">
-        <v>-0.1116921145086973</v>
+        <v>0.1855653423163012</v>
       </c>
       <c r="D73">
-        <v>-0.1106493820530287</v>
+        <v>-0.07016716862661455</v>
       </c>
       <c r="E73">
-        <v>-0.2204553085459614</v>
+        <v>0.02869523634699257</v>
       </c>
       <c r="F73">
-        <v>0.2811408423865357</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.1286067799130401</v>
+      </c>
+      <c r="G73">
+        <v>0.2084116213267987</v>
+      </c>
+      <c r="H73">
+        <v>-0.4552616276208791</v>
+      </c>
+      <c r="I73">
+        <v>-0.2102319098414841</v>
+      </c>
+      <c r="J73">
+        <v>0.1329413984001935</v>
+      </c>
+      <c r="K73">
+        <v>-0.1049756943454466</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.01810448414372165</v>
+        <v>0.04164291908991</v>
       </c>
       <c r="C74">
-        <v>-0.08186791230408369</v>
+        <v>0.09880882746256449</v>
       </c>
       <c r="D74">
-        <v>-0.07344117182856719</v>
+        <v>-0.04512787194618684</v>
       </c>
       <c r="E74">
-        <v>-0.05711492705856624</v>
+        <v>0.02031253216593225</v>
       </c>
       <c r="F74">
-        <v>0.0260812143422723</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.00520002972772571</v>
+      </c>
+      <c r="G74">
+        <v>0.03069308347671468</v>
+      </c>
+      <c r="H74">
+        <v>0.01925452992892636</v>
+      </c>
+      <c r="I74">
+        <v>0.05810972396370975</v>
+      </c>
+      <c r="J74">
+        <v>-0.01120797559154282</v>
+      </c>
+      <c r="K74">
+        <v>0.01200843453702305</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.03256064468628615</v>
+        <v>0.06884020936108803</v>
       </c>
       <c r="C75">
-        <v>-0.1367394741346899</v>
+        <v>0.164243940091814</v>
       </c>
       <c r="D75">
-        <v>-0.05226344038734344</v>
+        <v>-0.08903323625959345</v>
       </c>
       <c r="E75">
-        <v>-0.108742776040986</v>
+        <v>0.03390029123704383</v>
       </c>
       <c r="F75">
-        <v>-0.009413031745705689</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.02843393850946392</v>
+      </c>
+      <c r="G75">
+        <v>0.1023426061371999</v>
+      </c>
+      <c r="H75">
+        <v>0.1685677684547949</v>
+      </c>
+      <c r="I75">
+        <v>0.1456515027696365</v>
+      </c>
+      <c r="J75">
+        <v>0.07512699581364675</v>
+      </c>
+      <c r="K75">
+        <v>-0.1578472401535239</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.009625012263109949</v>
+        <v>0.05131718754753804</v>
       </c>
       <c r="C76">
-        <v>-0.1001748297260188</v>
+        <v>0.1294216238023284</v>
       </c>
       <c r="D76">
-        <v>-0.06548664856545705</v>
+        <v>-0.07745752905459793</v>
       </c>
       <c r="E76">
-        <v>-0.08708803569203694</v>
+        <v>0.01658896716235648</v>
       </c>
       <c r="F76">
-        <v>0.03025208963290702</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.05472765192816924</v>
+      </c>
+      <c r="G76">
+        <v>0.06625680402561171</v>
+      </c>
+      <c r="H76">
+        <v>0.07728506130213089</v>
+      </c>
+      <c r="I76">
+        <v>0.05773255746799911</v>
+      </c>
+      <c r="J76">
+        <v>0.06816389382090277</v>
+      </c>
+      <c r="K76">
+        <v>0.01380871300662567</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.08483525730006271</v>
+        <v>0.06059309962764536</v>
       </c>
       <c r="C77">
-        <v>-0.337731911233973</v>
+        <v>0.3930672876836321</v>
       </c>
       <c r="D77">
-        <v>0.8527478945612765</v>
+        <v>0.9016265938390443</v>
       </c>
       <c r="E77">
-        <v>-0.3064578206554964</v>
+        <v>0.03590262835496347</v>
       </c>
       <c r="F77">
-        <v>0.06955992433247447</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.004972298025797843</v>
+      </c>
+      <c r="G77">
+        <v>0.06375738163652481</v>
+      </c>
+      <c r="H77">
+        <v>0.09664340004333646</v>
+      </c>
+      <c r="I77">
+        <v>-0.02683870224706692</v>
+      </c>
+      <c r="J77">
+        <v>-0.01404416803629724</v>
+      </c>
+      <c r="K77">
+        <v>-0.03024871825998311</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.02257506652153864</v>
+        <v>0.03929251314903734</v>
       </c>
       <c r="C78">
-        <v>-0.1337341441587027</v>
+        <v>0.1156265796237417</v>
       </c>
       <c r="D78">
-        <v>-0.1314184999732673</v>
+        <v>-0.08288406848244385</v>
       </c>
       <c r="E78">
-        <v>0.08174464173125803</v>
+        <v>-0.03835743375392617</v>
       </c>
       <c r="F78">
-        <v>0.08294336171495308</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.04085499246024984</v>
+      </c>
+      <c r="G78">
+        <v>-0.01763538501925419</v>
+      </c>
+      <c r="H78">
+        <v>0.06090392900404592</v>
+      </c>
+      <c r="I78">
+        <v>0.0655736877149932</v>
+      </c>
+      <c r="J78">
+        <v>-0.05037415976090716</v>
+      </c>
+      <c r="K78">
+        <v>0.06860278460914439</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.02283155261332229</v>
+        <v>0.05923709572548071</v>
       </c>
       <c r="C79">
-        <v>-0.1312573295778946</v>
+        <v>0.1337257123706869</v>
       </c>
       <c r="D79">
-        <v>-0.08130363816738226</v>
+        <v>-0.05982320666615007</v>
       </c>
       <c r="E79">
-        <v>-0.08350409820987323</v>
+        <v>0.007850165727902918</v>
       </c>
       <c r="F79">
-        <v>0.0111363305977061</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>-0.0387096589419065</v>
+      </c>
+      <c r="G79">
+        <v>0.03924402214466647</v>
+      </c>
+      <c r="H79">
+        <v>0.146196076806672</v>
+      </c>
+      <c r="I79">
+        <v>0.1900437003560404</v>
+      </c>
+      <c r="J79">
+        <v>0.01289032410082459</v>
+      </c>
+      <c r="K79">
+        <v>-0.04645731604956528</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.007695165878209812</v>
+        <v>0.02126323558968761</v>
       </c>
       <c r="C80">
-        <v>-0.05679948641990967</v>
+        <v>0.04436277826146357</v>
       </c>
       <c r="D80">
-        <v>-0.03199846701232154</v>
+        <v>-0.03333362547189004</v>
       </c>
       <c r="E80">
-        <v>0.03191258470587524</v>
+        <v>-0.0190244830988603</v>
       </c>
       <c r="F80">
-        <v>0.01665919608513982</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.03006199450098147</v>
+      </c>
+      <c r="G80">
+        <v>-0.05897122505004476</v>
+      </c>
+      <c r="H80">
+        <v>-0.065025519648417</v>
+      </c>
+      <c r="I80">
+        <v>-0.05093900484019235</v>
+      </c>
+      <c r="J80">
+        <v>0.01122605636566355</v>
+      </c>
+      <c r="K80">
+        <v>-0.01666535915580462</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.000224007204192408</v>
+        <v>0.01894910644664479</v>
       </c>
       <c r="C81">
-        <v>-0.08564730909835098</v>
+        <v>0.1001512948520176</v>
       </c>
       <c r="D81">
-        <v>-0.05301560393556086</v>
+        <v>-0.05543778621160474</v>
       </c>
       <c r="E81">
-        <v>-0.0838362115558856</v>
+        <v>0.005867450373125038</v>
       </c>
       <c r="F81">
-        <v>0.01351744780552358</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.03870180077522234</v>
+      </c>
+      <c r="G81">
+        <v>0.02472328242018927</v>
+      </c>
+      <c r="H81">
+        <v>0.08701257464967717</v>
+      </c>
+      <c r="I81">
+        <v>0.09589702130857974</v>
+      </c>
+      <c r="J81">
+        <v>-0.0225116984141442</v>
+      </c>
+      <c r="K81">
+        <v>-0.06369403156046777</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.01664932162407374</v>
+        <v>0.0501407811898525</v>
       </c>
       <c r="C82">
-        <v>-0.07657691366078527</v>
+        <v>0.1072477046155883</v>
       </c>
       <c r="D82">
-        <v>-0.07124381321239845</v>
+        <v>-0.06623795287432917</v>
       </c>
       <c r="E82">
-        <v>-0.08571290405150081</v>
+        <v>0.005165986773528997</v>
       </c>
       <c r="F82">
-        <v>0.03193426303620217</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.06400941587122516</v>
+      </c>
+      <c r="G82">
+        <v>0.05113216664618818</v>
+      </c>
+      <c r="H82">
+        <v>0.07739153270600929</v>
+      </c>
+      <c r="I82">
+        <v>0.04739921201744951</v>
+      </c>
+      <c r="J82">
+        <v>0.04346647934057966</v>
+      </c>
+      <c r="K82">
+        <v>-0.01252052741956857</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.01520411013483643</v>
+        <v>0.0001246603279028997</v>
       </c>
       <c r="C83">
-        <v>-0.004035226420031293</v>
+        <v>-0.02208636544620362</v>
       </c>
       <c r="D83">
-        <v>0.1437767886690625</v>
+        <v>0.05849251913900466</v>
       </c>
       <c r="E83">
-        <v>0.5194910037499775</v>
+        <v>0.03285704702785883</v>
       </c>
       <c r="F83">
-        <v>0.7339542920535822</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.7515197634970303</v>
+      </c>
+      <c r="G83">
+        <v>-0.5967932056277374</v>
+      </c>
+      <c r="H83">
+        <v>0.01939114037787362</v>
+      </c>
+      <c r="I83">
+        <v>-0.0292018511677762</v>
+      </c>
+      <c r="J83">
+        <v>0.1191826185220761</v>
+      </c>
+      <c r="K83">
+        <v>0.06094396520680022</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.00880466025943165</v>
+        <v>0.01535503356740178</v>
       </c>
       <c r="C84">
-        <v>-0.1011236635300404</v>
+        <v>0.06281907853500758</v>
       </c>
       <c r="D84">
-        <v>-0.01976204444837498</v>
+        <v>-0.08625340100722656</v>
       </c>
       <c r="E84">
-        <v>0.05477803779170034</v>
+        <v>-0.2229124626443135</v>
       </c>
       <c r="F84">
-        <v>-0.1493100680489743</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>0.1382539620433147</v>
+      </c>
+      <c r="G84">
+        <v>-0.1024883273983117</v>
+      </c>
+      <c r="H84">
+        <v>0.4592132906984304</v>
+      </c>
+      <c r="I84">
+        <v>-0.6459889802453491</v>
+      </c>
+      <c r="J84">
+        <v>0.4244549378405855</v>
+      </c>
+      <c r="K84">
+        <v>-0.1465632691502525</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.001147323565513429</v>
+        <v>0.03582093925834485</v>
       </c>
       <c r="C85">
-        <v>-0.09309034798287429</v>
+        <v>0.1170158792082341</v>
       </c>
       <c r="D85">
-        <v>-0.05114660915036263</v>
+        <v>-0.08002701622984262</v>
       </c>
       <c r="E85">
-        <v>-0.07471779508403413</v>
+        <v>0.01792667338418184</v>
       </c>
       <c r="F85">
-        <v>0.02301200470176652</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.07812413564778806</v>
+      </c>
+      <c r="G85">
+        <v>0.09860956797903442</v>
+      </c>
+      <c r="H85">
+        <v>0.1624882901313085</v>
+      </c>
+      <c r="I85">
+        <v>0.1714377244952995</v>
+      </c>
+      <c r="J85">
+        <v>0.09860176488161079</v>
+      </c>
+      <c r="K85">
+        <v>-0.08243111572616887</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.01548035564498471</v>
+        <v>0.01615255428114944</v>
       </c>
       <c r="C86">
-        <v>-0.106777787071432</v>
+        <v>0.07806885310099763</v>
       </c>
       <c r="D86">
-        <v>-0.007230642274283321</v>
+        <v>-0.03667120771413692</v>
       </c>
       <c r="E86">
-        <v>0.0254787499404855</v>
+        <v>-0.05391167577693941</v>
       </c>
       <c r="F86">
-        <v>-0.03778563936995308</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.03723772224850125</v>
+      </c>
+      <c r="G86">
+        <v>-0.07909725351334287</v>
+      </c>
+      <c r="H86">
+        <v>-0.0371905787816704</v>
+      </c>
+      <c r="I86">
+        <v>0.1058689436504704</v>
+      </c>
+      <c r="J86">
+        <v>-0.03866476727922335</v>
+      </c>
+      <c r="K86">
+        <v>-0.1173996648277051</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.006731376886897466</v>
+        <v>0.0285537190414578</v>
       </c>
       <c r="C87">
-        <v>-0.1646990831961276</v>
+        <v>0.1189230997533752</v>
       </c>
       <c r="D87">
-        <v>-0.02831813317724311</v>
+        <v>-0.01936799915115055</v>
       </c>
       <c r="E87">
-        <v>0.07717655950388247</v>
+        <v>0.03097613221280156</v>
       </c>
       <c r="F87">
-        <v>-0.06243535489957684</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.01956553460082511</v>
+      </c>
+      <c r="G87">
+        <v>-0.0365673567929667</v>
+      </c>
+      <c r="H87">
+        <v>0.02712154330058088</v>
+      </c>
+      <c r="I87">
+        <v>-0.0008551030961678471</v>
+      </c>
+      <c r="J87">
+        <v>-0.0149216374009496</v>
+      </c>
+      <c r="K87">
+        <v>0.06089497675516324</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.008187987225032087</v>
+        <v>0.04079998261666679</v>
       </c>
       <c r="C88">
-        <v>-0.03594897056572351</v>
+        <v>0.0608183631221542</v>
       </c>
       <c r="D88">
-        <v>-0.04297541916864629</v>
+        <v>-0.0363486617671851</v>
       </c>
       <c r="E88">
-        <v>-0.04890424921456527</v>
+        <v>0.01431434215109938</v>
       </c>
       <c r="F88">
-        <v>0.0118925080731613</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.007079660235077947</v>
+      </c>
+      <c r="G88">
+        <v>0.02159198425000219</v>
+      </c>
+      <c r="H88">
+        <v>-0.01105546898253969</v>
+      </c>
+      <c r="I88">
+        <v>0.008244409713452569</v>
+      </c>
+      <c r="J88">
+        <v>-0.01917935469705384</v>
+      </c>
+      <c r="K88">
+        <v>0.01460949944725074</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.4149398145394266</v>
+        <v>0.3884480877951212</v>
       </c>
       <c r="C89">
-        <v>0.06323332812335856</v>
+        <v>-0.1282318086479567</v>
       </c>
       <c r="D89">
-        <v>-0.0839198153295448</v>
+        <v>0.03251192499867223</v>
       </c>
       <c r="E89">
-        <v>0.07762610153975519</v>
+        <v>0.03167648604284632</v>
       </c>
       <c r="F89">
-        <v>-0.06438444794333872</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.06393462142172515</v>
+      </c>
+      <c r="G89">
+        <v>-0.01027493740406311</v>
+      </c>
+      <c r="H89">
+        <v>0.06854190624110289</v>
+      </c>
+      <c r="I89">
+        <v>-0.05330917383412669</v>
+      </c>
+      <c r="J89">
+        <v>0.01828147034247898</v>
+      </c>
+      <c r="K89">
+        <v>0.7474235643887517</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.3050826188641604</v>
+        <v>0.3147437088184901</v>
       </c>
       <c r="C90">
-        <v>0.01472558335227023</v>
+        <v>-0.0855900774141483</v>
       </c>
       <c r="D90">
-        <v>0.01394580041106911</v>
+        <v>0.02136107932440931</v>
       </c>
       <c r="E90">
-        <v>0.04976317701701213</v>
+        <v>-0.01654151641418312</v>
       </c>
       <c r="F90">
-        <v>0.02032209413468957</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.01096070020957155</v>
+      </c>
+      <c r="G90">
+        <v>-0.03319650230174967</v>
+      </c>
+      <c r="H90">
+        <v>0.01968629191597526</v>
+      </c>
+      <c r="I90">
+        <v>5.718917622026998e-05</v>
+      </c>
+      <c r="J90">
+        <v>0.0003192087416714012</v>
+      </c>
+      <c r="K90">
+        <v>-0.1071989412192819</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.02708560316191629</v>
+        <v>0.05869717018546841</v>
       </c>
       <c r="C91">
-        <v>-0.07501802815683388</v>
+        <v>0.07603428126046279</v>
       </c>
       <c r="D91">
-        <v>-0.05834914165727724</v>
+        <v>-0.05367351712641474</v>
       </c>
       <c r="E91">
-        <v>-0.02960827426720462</v>
+        <v>0.01526985936656072</v>
       </c>
       <c r="F91">
-        <v>0.0505245738784601</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.06179794204383662</v>
+      </c>
+      <c r="G91">
+        <v>0.01262339097945545</v>
+      </c>
+      <c r="H91">
+        <v>0.03420437650458659</v>
+      </c>
+      <c r="I91">
+        <v>0.08446162461235575</v>
+      </c>
+      <c r="J91">
+        <v>0.0473715821808043</v>
+      </c>
+      <c r="K91">
+        <v>-0.02229065269934598</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.3741304465615074</v>
+        <v>0.3489314564576348</v>
       </c>
       <c r="C92">
-        <v>0.0606294642333319</v>
+        <v>-0.1258059414325975</v>
       </c>
       <c r="D92">
-        <v>0.01415728396840616</v>
+        <v>0.04865153084952161</v>
       </c>
       <c r="E92">
-        <v>-0.01533737949650683</v>
+        <v>0.01568147813397637</v>
       </c>
       <c r="F92">
-        <v>-0.1223400998898387</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.060669023221557</v>
+      </c>
+      <c r="G92">
+        <v>-0.01291388824028826</v>
+      </c>
+      <c r="H92">
+        <v>0.029374759789797</v>
+      </c>
+      <c r="I92">
+        <v>0.005348164429775182</v>
+      </c>
+      <c r="J92">
+        <v>-0.06547484926258375</v>
+      </c>
+      <c r="K92">
+        <v>-0.1268275598756171</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.3145277514362941</v>
+        <v>0.3053708568698029</v>
       </c>
       <c r="C93">
-        <v>0.07516722831710344</v>
+        <v>-0.129062728026872</v>
       </c>
       <c r="D93">
-        <v>0.0001670181976224126</v>
+        <v>0.008333733285179001</v>
       </c>
       <c r="E93">
-        <v>0.05219551000663315</v>
+        <v>-0.02918529221867254</v>
       </c>
       <c r="F93">
-        <v>-0.02751582510615316</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.0314931918396126</v>
+      </c>
+      <c r="G93">
+        <v>-0.04091425724637812</v>
+      </c>
+      <c r="H93">
+        <v>0.02758341296382982</v>
+      </c>
+      <c r="I93">
+        <v>0.03996723494766574</v>
+      </c>
+      <c r="J93">
+        <v>-0.02684230855952885</v>
+      </c>
+      <c r="K93">
+        <v>-0.1421147946913861</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.02343472312584155</v>
+        <v>0.08919757369845993</v>
       </c>
       <c r="C94">
-        <v>-0.2018244271798088</v>
+        <v>0.1740745877022664</v>
       </c>
       <c r="D94">
-        <v>-0.08651976784687367</v>
+        <v>-0.1073423108584102</v>
       </c>
       <c r="E94">
-        <v>-0.07486565136575808</v>
+        <v>0.01775403658676755</v>
       </c>
       <c r="F94">
-        <v>-0.06211710675253726</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.07143524903013078</v>
+      </c>
+      <c r="G94">
+        <v>0.07795809408969175</v>
+      </c>
+      <c r="H94">
+        <v>0.2438812268262605</v>
+      </c>
+      <c r="I94">
+        <v>0.3817058021222438</v>
+      </c>
+      <c r="J94">
+        <v>0.2931817405296268</v>
+      </c>
+      <c r="K94">
+        <v>0.007335655550139923</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.0266840843478379</v>
+        <v>0.04730241332065725</v>
       </c>
       <c r="C95">
-        <v>-0.1249364929627459</v>
+        <v>0.1371735268584739</v>
       </c>
       <c r="D95">
-        <v>-0.06820188507917839</v>
+        <v>-0.06788862708108839</v>
       </c>
       <c r="E95">
-        <v>-0.148485781133269</v>
+        <v>0.02056871635232828</v>
       </c>
       <c r="F95">
-        <v>0.09279874963841436</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.02149547298281075</v>
+      </c>
+      <c r="G95">
+        <v>0.0829703750360723</v>
+      </c>
+      <c r="H95">
+        <v>0.08413310363347724</v>
+      </c>
+      <c r="I95">
+        <v>-0.08049257347342406</v>
+      </c>
+      <c r="J95">
+        <v>0.03364089996207643</v>
+      </c>
+      <c r="K95">
+        <v>0.1199756910157198</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +4057,130 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.001255846815179055</v>
+        <v>0.02429574027342061</v>
       </c>
       <c r="C97">
-        <v>-0.0002155204641251739</v>
+        <v>0.02779424246875674</v>
       </c>
       <c r="D97">
-        <v>-0.001555598169155931</v>
+        <v>-0.002004385348760985</v>
       </c>
       <c r="E97">
-        <v>-0.004775715510732858</v>
+        <v>-0.04990838749863203</v>
       </c>
       <c r="F97">
-        <v>-0.003029699011280812</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>0.01089310203673931</v>
+      </c>
+      <c r="G97">
+        <v>0.01697431982829447</v>
+      </c>
+      <c r="H97">
+        <v>-0.005911198951162599</v>
+      </c>
+      <c r="I97">
+        <v>0.0162983814565707</v>
+      </c>
+      <c r="J97">
+        <v>-0.02637680159820353</v>
+      </c>
+      <c r="K97">
+        <v>0.06453905741033168</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.09506804973814952</v>
+        <v>0.1406660515841847</v>
       </c>
       <c r="C98">
-        <v>-0.1582134504396897</v>
+        <v>0.1579870707002698</v>
       </c>
       <c r="D98">
-        <v>-0.132167981768649</v>
+        <v>-0.08126621291491731</v>
       </c>
       <c r="E98">
-        <v>-0.1561279774881855</v>
+        <v>0.04881504128687875</v>
       </c>
       <c r="F98">
-        <v>0.1865246499866061</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.1432528389475648</v>
+      </c>
+      <c r="G98">
+        <v>0.1721160180066681</v>
+      </c>
+      <c r="H98">
+        <v>-0.3716875644273469</v>
+      </c>
+      <c r="I98">
+        <v>-0.1616356049380181</v>
+      </c>
+      <c r="J98">
+        <v>0.1767535436861701</v>
+      </c>
+      <c r="K98">
+        <v>-0.1063401251446848</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.02565887878502539</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.04461859422746567</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.037165893219826</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-0.949021675657103</v>
       </c>
       <c r="F99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>-0.1130381104000587</v>
+      </c>
+      <c r="G99">
+        <v>0.08631712494583246</v>
+      </c>
+      <c r="H99">
+        <v>-0.128271195104477</v>
+      </c>
+      <c r="I99">
+        <v>0.1386791944783454</v>
+      </c>
+      <c r="J99">
+        <v>-0.03764404507590561</v>
+      </c>
+      <c r="K99">
+        <v>0.07579590817305429</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,50 +4197,95 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.00758538834531323</v>
+        <v>0.01864965106718255</v>
       </c>
       <c r="C101">
-        <v>-0.07741743875332474</v>
+        <v>0.08128980582933396</v>
       </c>
       <c r="D101">
-        <v>-0.05983151269643681</v>
+        <v>-0.04663741775981912</v>
       </c>
       <c r="E101">
-        <v>-0.0175968480844523</v>
+        <v>0.009665317811595507</v>
       </c>
       <c r="F101">
-        <v>0.03704394341016249</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.04069624728685776</v>
+      </c>
+      <c r="G101">
+        <v>-0.02399838146058398</v>
+      </c>
+      <c r="H101">
+        <v>0.04175762815026922</v>
+      </c>
+      <c r="I101">
+        <v>-0.1587355829153553</v>
+      </c>
+      <c r="J101">
+        <v>-0.2650558548077928</v>
+      </c>
+      <c r="K101">
+        <v>0.01538472794147066</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>0.0003385831401936907</v>
+        <v>0.000284903287332344</v>
       </c>
       <c r="C102">
-        <v>-0.009604273643632836</v>
+        <v>0.004681131479513394</v>
       </c>
       <c r="D102">
-        <v>-0.007635333785589002</v>
+        <v>-0.001752987604008955</v>
       </c>
       <c r="E102">
-        <v>-0.0103397113503342</v>
+        <v>0.002177065508175255</v>
       </c>
       <c r="F102">
-        <v>0.01795038326312903</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.00824285330341722</v>
+      </c>
+      <c r="G102">
+        <v>0.003380853514356557</v>
+      </c>
+      <c r="H102">
+        <v>0.002060707839428195</v>
+      </c>
+      <c r="I102">
+        <v>0.0001413962603418035</v>
+      </c>
+      <c r="J102">
+        <v>-0.0007418761476533017</v>
+      </c>
+      <c r="K102">
+        <v>0.02523636809885993</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +4302,25 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4335,21 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
